--- a/mock/DB/excel/excel_595382f463a852.54219921.xlsx
+++ b/mock/DB/excel/excel_595382f463a852.54219921.xlsx
@@ -14,9 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
-  <si>
-    <t>gago ka</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>tbl_msc_files</t>
+  </si>
+  <si>
+    <t>id_ai</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>file_format</t>
+  </si>
+  <si>
+    <t>signatories</t>
+  </si>
+  <si>
+    <t>pending_signatories</t>
+  </si>
+  <si>
+    <t>approved_signatories</t>
+  </si>
+  <si>
+    <t>disapproved</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created_on</t>
+  </si>
+  <si>
+    <t>published_on</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>ssssss</t>
   </si>
 </sst>
 </file>
@@ -45,13 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -60,24 +116,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -97,31 +169,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,48 +223,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +254,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -198,180 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +457,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -405,6 +479,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,58 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,148 +550,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,17 +1013,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="19.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="27.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="17.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="13.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="16.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="18.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:4">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
